--- a/medicine/Psychotrope/Drinking_Buddies/Drinking_Buddies.xlsx
+++ b/medicine/Psychotrope/Drinking_Buddies/Drinking_Buddies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Drinking Buddies (Ivresse entre amis en français) est une comédie américaine réalisée par Joe Swanberg et sortie en 2013.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Luke et Kate sont collègues de travail dans une brasserie de Chicago, et passent leur temps à flirter et boire. Ils semblent faits l'un pour l'autre, mais sont tous deux en couple chacun de leur côté. La bière risque de changer leur relation.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Drinking Buddies
 Titre français : Ivresse entre amis
@@ -563,7 +579,7 @@
 Sociétés de production :  Burn Later Productions
 Société de distribution : Sony Pictures Releasing France
 Budget : ?
-Box Office : 1 942 686 USD[1]
+Box Office : 1 942 686 USD
 Pays :  États-Unis
 Langue : anglais
 Format : couleur – 2.35 : 1 — son Dolby Digital et SDDS
@@ -599,7 +615,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Anna Kendrick : Jill
 Olivia Wilde : Kate
@@ -636,12 +654,52 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Réception critique
-Le film reçoit la note de 5.8/10 sur SensCritique[2].
+          <t>Réception critique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit la note de 5.8/10 sur SensCritique.
 Sur le site d'IMDb, il obtient la note 6,1/10.
-Sur le site de Metacritic, il obtient un Metascore de 71/100 basé sur 32 avis[3].
-Box-office
-Le film vend pour 19 505 $ lors de la première semaine aux États-Unis mais totalise presque 2 millions de dollars (1 942 686 $) pendant les deux mois d’exploitation dans les salles obscures[1].
+Sur le site de Metacritic, il obtient un Metascore de 71/100 basé sur 32 avis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Drinking_Buddies</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Drinking_Buddies</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film vend pour 19 505 $ lors de la première semaine aux États-Unis mais totalise presque 2 millions de dollars (1 942 686 $) pendant les deux mois d’exploitation dans les salles obscures.
 </t>
         </is>
       </c>
